--- a/chooseRiver.xlsx
+++ b/chooseRiver.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oferd\PycharmProjects\AiYactProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oferd\PycharmProjects\yactNeedServer\yactNeedServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC4BC6B-99D9-4B03-A1FE-13BA840AB15C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F69EA0-43DC-43A9-B81F-A11AFA53B06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-2340" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="77">
   <si>
     <t>name:</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -593,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="F77" sqref="F76:F77"/>
+    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
+      <selection activeCell="F419" sqref="F419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2285,10 +2288,6564 @@
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F76" s="1"/>
+      <c r="B76" s="3">
+        <v>60</v>
+      </c>
+      <c r="C76" s="1">
+        <v>3</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F77" s="1"/>
+      <c r="B77" s="3">
+        <v>61</v>
+      </c>
+      <c r="C77" s="1">
+        <v>3</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B78" s="3">
+        <v>62</v>
+      </c>
+      <c r="C78" s="1">
+        <v>3</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B79" s="3">
+        <v>65</v>
+      </c>
+      <c r="C79" s="1">
+        <v>3</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B80" s="3">
+        <v>20</v>
+      </c>
+      <c r="C80" s="1">
+        <v>3</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B81" s="3">
+        <v>70</v>
+      </c>
+      <c r="C81" s="1">
+        <v>3</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B82" s="3">
+        <v>80</v>
+      </c>
+      <c r="C82" s="1">
+        <v>3</v>
+      </c>
+      <c r="D82" s="3">
+        <v>2</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B83" s="3">
+        <v>60</v>
+      </c>
+      <c r="C83" s="1">
+        <v>3</v>
+      </c>
+      <c r="D83" s="3">
+        <v>2</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B84" s="3">
+        <v>61</v>
+      </c>
+      <c r="C84" s="1">
+        <v>3</v>
+      </c>
+      <c r="D84" s="3">
+        <v>2</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B85" s="3">
+        <v>62</v>
+      </c>
+      <c r="C85" s="1">
+        <v>3</v>
+      </c>
+      <c r="D85" s="3">
+        <v>2</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B86" s="3">
+        <v>65</v>
+      </c>
+      <c r="C86" s="3">
+        <v>4</v>
+      </c>
+      <c r="D86" s="3">
+        <v>2</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B87" s="3">
+        <v>20</v>
+      </c>
+      <c r="C87" s="3">
+        <v>4</v>
+      </c>
+      <c r="D87" s="3">
+        <v>2</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B88" s="3">
+        <v>70</v>
+      </c>
+      <c r="C88" s="3">
+        <v>4</v>
+      </c>
+      <c r="D88" s="3">
+        <v>2</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B89" s="3">
+        <v>80</v>
+      </c>
+      <c r="C89" s="3">
+        <v>4</v>
+      </c>
+      <c r="D89" s="3">
+        <v>2</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B90" s="3">
+        <v>60</v>
+      </c>
+      <c r="C90" s="1">
+        <v>3</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B91" s="3">
+        <v>61</v>
+      </c>
+      <c r="C91" s="1">
+        <v>3</v>
+      </c>
+      <c r="D91" s="1">
+        <v>1</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B92" s="3">
+        <v>62</v>
+      </c>
+      <c r="C92" s="1">
+        <v>3</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B93" s="3">
+        <v>65</v>
+      </c>
+      <c r="C93" s="1">
+        <v>3</v>
+      </c>
+      <c r="D93" s="1">
+        <v>1</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B94" s="3">
+        <v>20</v>
+      </c>
+      <c r="C94" s="1">
+        <v>3</v>
+      </c>
+      <c r="D94" s="1">
+        <v>1</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B95" s="3">
+        <v>70</v>
+      </c>
+      <c r="C95" s="1">
+        <v>3</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B96" s="3">
+        <v>80</v>
+      </c>
+      <c r="C96" s="1">
+        <v>3</v>
+      </c>
+      <c r="D96" s="3">
+        <v>2</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B97" s="3">
+        <v>60</v>
+      </c>
+      <c r="C97" s="1">
+        <v>3</v>
+      </c>
+      <c r="D97" s="3">
+        <v>2</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B98" s="3">
+        <v>61</v>
+      </c>
+      <c r="C98" s="1">
+        <v>3</v>
+      </c>
+      <c r="D98" s="3">
+        <v>2</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B99" s="3">
+        <v>62</v>
+      </c>
+      <c r="C99" s="1">
+        <v>3</v>
+      </c>
+      <c r="D99" s="3">
+        <v>2</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B100" s="3">
+        <v>65</v>
+      </c>
+      <c r="C100" s="3">
+        <v>4</v>
+      </c>
+      <c r="D100" s="3">
+        <v>2</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B101" s="3">
+        <v>20</v>
+      </c>
+      <c r="C101" s="3">
+        <v>4</v>
+      </c>
+      <c r="D101" s="3">
+        <v>2</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B102" s="3">
+        <v>70</v>
+      </c>
+      <c r="C102" s="3">
+        <v>4</v>
+      </c>
+      <c r="D102" s="3">
+        <v>2</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B103" s="3">
+        <v>80</v>
+      </c>
+      <c r="C103" s="3">
+        <v>4</v>
+      </c>
+      <c r="D103" s="3">
+        <v>2</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B104" s="3">
+        <v>60</v>
+      </c>
+      <c r="C104" s="1">
+        <v>3</v>
+      </c>
+      <c r="D104" s="1">
+        <v>1</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B105" s="3">
+        <v>61</v>
+      </c>
+      <c r="C105" s="1">
+        <v>3</v>
+      </c>
+      <c r="D105" s="1">
+        <v>1</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B106" s="3">
+        <v>62</v>
+      </c>
+      <c r="C106" s="1">
+        <v>3</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B107" s="3">
+        <v>65</v>
+      </c>
+      <c r="C107" s="1">
+        <v>3</v>
+      </c>
+      <c r="D107" s="1">
+        <v>1</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B108" s="3">
+        <v>20</v>
+      </c>
+      <c r="C108" s="1">
+        <v>3</v>
+      </c>
+      <c r="D108" s="1">
+        <v>1</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B109" s="3">
+        <v>70</v>
+      </c>
+      <c r="C109" s="1">
+        <v>3</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B110" s="3">
+        <v>80</v>
+      </c>
+      <c r="C110" s="1">
+        <v>3</v>
+      </c>
+      <c r="D110" s="3">
+        <v>2</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B111" s="3">
+        <v>60</v>
+      </c>
+      <c r="C111" s="1">
+        <v>3</v>
+      </c>
+      <c r="D111" s="3">
+        <v>2</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B112" s="3">
+        <v>61</v>
+      </c>
+      <c r="C112" s="1">
+        <v>3</v>
+      </c>
+      <c r="D112" s="3">
+        <v>2</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B113" s="3">
+        <v>62</v>
+      </c>
+      <c r="C113" s="1">
+        <v>3</v>
+      </c>
+      <c r="D113" s="3">
+        <v>2</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B114" s="3">
+        <v>65</v>
+      </c>
+      <c r="C114" s="3">
+        <v>4</v>
+      </c>
+      <c r="D114" s="3">
+        <v>2</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B115" s="3">
+        <v>20</v>
+      </c>
+      <c r="C115" s="3">
+        <v>4</v>
+      </c>
+      <c r="D115" s="3">
+        <v>2</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B116" s="3">
+        <v>70</v>
+      </c>
+      <c r="C116" s="3">
+        <v>4</v>
+      </c>
+      <c r="D116" s="3">
+        <v>2</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B117" s="3">
+        <v>80</v>
+      </c>
+      <c r="C117" s="3">
+        <v>4</v>
+      </c>
+      <c r="D117" s="3">
+        <v>2</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B118" s="3">
+        <v>23</v>
+      </c>
+      <c r="C118" s="3">
+        <v>4</v>
+      </c>
+      <c r="D118" s="3">
+        <v>0</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B119" s="3">
+        <v>22</v>
+      </c>
+      <c r="C119" s="3">
+        <v>3</v>
+      </c>
+      <c r="D119" s="3">
+        <v>0</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B120" s="3">
+        <v>25</v>
+      </c>
+      <c r="C120" s="3">
+        <v>7</v>
+      </c>
+      <c r="D120" s="3">
+        <v>0</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B121" s="3">
+        <v>20</v>
+      </c>
+      <c r="C121" s="3">
+        <v>4</v>
+      </c>
+      <c r="D121" s="3">
+        <v>0</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B122" s="3">
+        <v>21</v>
+      </c>
+      <c r="C122" s="3">
+        <v>3</v>
+      </c>
+      <c r="D122" s="3">
+        <v>0</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B123" s="3">
+        <v>19</v>
+      </c>
+      <c r="C123" s="3">
+        <v>4</v>
+      </c>
+      <c r="D123" s="3">
+        <v>0</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B124" s="3">
+        <v>23</v>
+      </c>
+      <c r="C124" s="3">
+        <v>4</v>
+      </c>
+      <c r="D124" s="3">
+        <v>0</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B125" s="3">
+        <v>22</v>
+      </c>
+      <c r="C125" s="3">
+        <v>3</v>
+      </c>
+      <c r="D125" s="3">
+        <v>0</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B126" s="3">
+        <v>25</v>
+      </c>
+      <c r="C126" s="3">
+        <v>7</v>
+      </c>
+      <c r="D126" s="3">
+        <v>0</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B127" s="3">
+        <v>20</v>
+      </c>
+      <c r="C127" s="3">
+        <v>4</v>
+      </c>
+      <c r="D127" s="3">
+        <v>0</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B128" s="3">
+        <v>21</v>
+      </c>
+      <c r="C128" s="3">
+        <v>3</v>
+      </c>
+      <c r="D128" s="3">
+        <v>0</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B129" s="3">
+        <v>19</v>
+      </c>
+      <c r="C129" s="3">
+        <v>4</v>
+      </c>
+      <c r="D129" s="3">
+        <v>0</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B130" s="3">
+        <v>23</v>
+      </c>
+      <c r="C130" s="3">
+        <v>4</v>
+      </c>
+      <c r="D130" s="3">
+        <v>0</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B131" s="3">
+        <v>22</v>
+      </c>
+      <c r="C131" s="3">
+        <v>3</v>
+      </c>
+      <c r="D131" s="3">
+        <v>0</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B132" s="3">
+        <v>25</v>
+      </c>
+      <c r="C132" s="3">
+        <v>7</v>
+      </c>
+      <c r="D132" s="3">
+        <v>0</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B133" s="3">
+        <v>20</v>
+      </c>
+      <c r="C133" s="3">
+        <v>4</v>
+      </c>
+      <c r="D133" s="3">
+        <v>0</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B134" s="3">
+        <v>21</v>
+      </c>
+      <c r="C134" s="3">
+        <v>3</v>
+      </c>
+      <c r="D134" s="3">
+        <v>0</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B135" s="3">
+        <v>19</v>
+      </c>
+      <c r="C135" s="3">
+        <v>4</v>
+      </c>
+      <c r="D135" s="3">
+        <v>0</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B136" s="1">
+        <v>20</v>
+      </c>
+      <c r="C136" s="1">
+        <v>0</v>
+      </c>
+      <c r="D136" s="1">
+        <v>0</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B137" s="1">
+        <v>21</v>
+      </c>
+      <c r="C137" s="1">
+        <v>0</v>
+      </c>
+      <c r="D137" s="1">
+        <v>0</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B138" s="1">
+        <v>22</v>
+      </c>
+      <c r="C138" s="1">
+        <v>0</v>
+      </c>
+      <c r="D138" s="1">
+        <v>0</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B139" s="1">
+        <v>23</v>
+      </c>
+      <c r="C139" s="1">
+        <v>0</v>
+      </c>
+      <c r="D139" s="1">
+        <v>1</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B140" s="1">
+        <v>24</v>
+      </c>
+      <c r="C140" s="1">
+        <v>0</v>
+      </c>
+      <c r="D140" s="1">
+        <v>0</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B141" s="1">
+        <v>25</v>
+      </c>
+      <c r="C141" s="1">
+        <v>0</v>
+      </c>
+      <c r="D141" s="1">
+        <v>0</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B142" s="1">
+        <v>26</v>
+      </c>
+      <c r="C142" s="1">
+        <v>0</v>
+      </c>
+      <c r="D142" s="1">
+        <v>0</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B143" s="1">
+        <v>27</v>
+      </c>
+      <c r="C143" s="1">
+        <v>0</v>
+      </c>
+      <c r="D143" s="1">
+        <v>2</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B144" s="1">
+        <v>28</v>
+      </c>
+      <c r="C144" s="1">
+        <v>0</v>
+      </c>
+      <c r="D144" s="1">
+        <v>0</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B145" s="1">
+        <v>29</v>
+      </c>
+      <c r="C145" s="1">
+        <v>0</v>
+      </c>
+      <c r="D145" s="1">
+        <v>0</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B146" s="1">
+        <v>20</v>
+      </c>
+      <c r="C146" s="1">
+        <v>1</v>
+      </c>
+      <c r="D146" s="1">
+        <v>0</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B147" s="1">
+        <v>21</v>
+      </c>
+      <c r="C147" s="1">
+        <v>1</v>
+      </c>
+      <c r="D147" s="1">
+        <v>0</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B148" s="1">
+        <v>22</v>
+      </c>
+      <c r="C148" s="1">
+        <v>1</v>
+      </c>
+      <c r="D148" s="1">
+        <v>0</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B149" s="1">
+        <v>23</v>
+      </c>
+      <c r="C149" s="1">
+        <v>1</v>
+      </c>
+      <c r="D149" s="1">
+        <v>0</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B150" s="1">
+        <v>24</v>
+      </c>
+      <c r="C150" s="1">
+        <v>1</v>
+      </c>
+      <c r="D150" s="1">
+        <v>0</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B151" s="1">
+        <v>25</v>
+      </c>
+      <c r="C151" s="1">
+        <v>1</v>
+      </c>
+      <c r="D151" s="1">
+        <v>0</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B152" s="1">
+        <v>26</v>
+      </c>
+      <c r="C152" s="1">
+        <v>1</v>
+      </c>
+      <c r="D152" s="1">
+        <v>0</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B153" s="1">
+        <v>27</v>
+      </c>
+      <c r="C153" s="1">
+        <v>1</v>
+      </c>
+      <c r="D153" s="1">
+        <v>1</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B154" s="1">
+        <v>28</v>
+      </c>
+      <c r="C154" s="1">
+        <v>1</v>
+      </c>
+      <c r="D154" s="1">
+        <v>0</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B155" s="1">
+        <v>29</v>
+      </c>
+      <c r="C155" s="1">
+        <v>1</v>
+      </c>
+      <c r="D155" s="1">
+        <v>0</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B156" s="1">
+        <v>20</v>
+      </c>
+      <c r="C156" s="1">
+        <v>2</v>
+      </c>
+      <c r="D156" s="1">
+        <v>0</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B157" s="1">
+        <v>21</v>
+      </c>
+      <c r="C157" s="1">
+        <v>2</v>
+      </c>
+      <c r="D157" s="1">
+        <v>0</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B158" s="1">
+        <v>22</v>
+      </c>
+      <c r="C158" s="1">
+        <v>2</v>
+      </c>
+      <c r="D158" s="1">
+        <v>0</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B159" s="1">
+        <v>23</v>
+      </c>
+      <c r="C159" s="1">
+        <v>2</v>
+      </c>
+      <c r="D159" s="1">
+        <v>0</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B160" s="1">
+        <v>24</v>
+      </c>
+      <c r="C160" s="1">
+        <v>2</v>
+      </c>
+      <c r="D160" s="1">
+        <v>0</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B161" s="1">
+        <v>25</v>
+      </c>
+      <c r="C161" s="1">
+        <v>2</v>
+      </c>
+      <c r="D161" s="1">
+        <v>0</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B162" s="1">
+        <v>26</v>
+      </c>
+      <c r="C162" s="1">
+        <v>2</v>
+      </c>
+      <c r="D162" s="1">
+        <v>0</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B163" s="1">
+        <v>27</v>
+      </c>
+      <c r="C163" s="1">
+        <v>2</v>
+      </c>
+      <c r="D163" s="1">
+        <v>0</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B164" s="1">
+        <v>28</v>
+      </c>
+      <c r="C164" s="1">
+        <v>2</v>
+      </c>
+      <c r="D164" s="1">
+        <v>0</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B165" s="1">
+        <v>29</v>
+      </c>
+      <c r="C165" s="1">
+        <v>2</v>
+      </c>
+      <c r="D165" s="1">
+        <v>0</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B166" s="1">
+        <v>25</v>
+      </c>
+      <c r="C166" s="1">
+        <v>4</v>
+      </c>
+      <c r="D166" s="1">
+        <v>0</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B167" s="1">
+        <v>26</v>
+      </c>
+      <c r="C167" s="1">
+        <v>4</v>
+      </c>
+      <c r="D167" s="1">
+        <v>0</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B168" s="1">
+        <v>27</v>
+      </c>
+      <c r="C168" s="1">
+        <v>4</v>
+      </c>
+      <c r="D168" s="1">
+        <v>0</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B169" s="1">
+        <v>28</v>
+      </c>
+      <c r="C169" s="1">
+        <v>4</v>
+      </c>
+      <c r="D169" s="1">
+        <v>1</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B170" s="1">
+        <v>29</v>
+      </c>
+      <c r="C170" s="1">
+        <v>4</v>
+      </c>
+      <c r="D170" s="1">
+        <v>2</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B171" s="1">
+        <v>30</v>
+      </c>
+      <c r="C171" s="1">
+        <v>4</v>
+      </c>
+      <c r="D171" s="1">
+        <v>1</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B172" s="1">
+        <v>31</v>
+      </c>
+      <c r="C172" s="1">
+        <v>5</v>
+      </c>
+      <c r="D172" s="1">
+        <v>2</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B173" s="1">
+        <v>32</v>
+      </c>
+      <c r="C173" s="1">
+        <v>5</v>
+      </c>
+      <c r="D173" s="1">
+        <v>1</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B174" s="1">
+        <v>33</v>
+      </c>
+      <c r="C174" s="1">
+        <v>5</v>
+      </c>
+      <c r="D174" s="1">
+        <v>2</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B175" s="1">
+        <v>34</v>
+      </c>
+      <c r="C175" s="1">
+        <v>5</v>
+      </c>
+      <c r="D175" s="1">
+        <v>1</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B176" s="1">
+        <v>35</v>
+      </c>
+      <c r="C176" s="1">
+        <v>5</v>
+      </c>
+      <c r="D176" s="1">
+        <v>2</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B177" s="1">
+        <v>36</v>
+      </c>
+      <c r="C177" s="1">
+        <v>5</v>
+      </c>
+      <c r="D177" s="1">
+        <v>1</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B178" s="1">
+        <v>37</v>
+      </c>
+      <c r="C178" s="1">
+        <v>2</v>
+      </c>
+      <c r="D178" s="1">
+        <v>2</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B179" s="1">
+        <v>38</v>
+      </c>
+      <c r="C179" s="1">
+        <v>2</v>
+      </c>
+      <c r="D179" s="1">
+        <v>3</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B180" s="1">
+        <v>39</v>
+      </c>
+      <c r="C180" s="1">
+        <v>2</v>
+      </c>
+      <c r="D180" s="1">
+        <v>3</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B181" s="1">
+        <v>25</v>
+      </c>
+      <c r="C181" s="1">
+        <v>2</v>
+      </c>
+      <c r="D181" s="1">
+        <v>3</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B182" s="1">
+        <v>26</v>
+      </c>
+      <c r="C182" s="1">
+        <v>2</v>
+      </c>
+      <c r="D182" s="1">
+        <v>3</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B183" s="1">
+        <v>27</v>
+      </c>
+      <c r="C183" s="1">
+        <v>2</v>
+      </c>
+      <c r="D183" s="1">
+        <v>3</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B184" s="1">
+        <v>28</v>
+      </c>
+      <c r="C184" s="1">
+        <v>2</v>
+      </c>
+      <c r="D184" s="1">
+        <v>3</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B185" s="1">
+        <v>29</v>
+      </c>
+      <c r="C185" s="1">
+        <v>2</v>
+      </c>
+      <c r="D185" s="1">
+        <v>3</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B186" s="1">
+        <v>30</v>
+      </c>
+      <c r="C186" s="1">
+        <v>3</v>
+      </c>
+      <c r="D186" s="1">
+        <v>3</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B187" s="1">
+        <v>31</v>
+      </c>
+      <c r="C187" s="1">
+        <v>3</v>
+      </c>
+      <c r="D187" s="1">
+        <v>2</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B188" s="1">
+        <v>32</v>
+      </c>
+      <c r="C188" s="1">
+        <v>3</v>
+      </c>
+      <c r="D188" s="1">
+        <v>2</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B189" s="1">
+        <v>33</v>
+      </c>
+      <c r="C189" s="1">
+        <v>3</v>
+      </c>
+      <c r="D189" s="1">
+        <v>4</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B190" s="1">
+        <v>34</v>
+      </c>
+      <c r="C190" s="1">
+        <v>3</v>
+      </c>
+      <c r="D190" s="1">
+        <v>5</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B191" s="1">
+        <v>35</v>
+      </c>
+      <c r="C191" s="1">
+        <v>3</v>
+      </c>
+      <c r="D191" s="1">
+        <v>1</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B192" s="1">
+        <v>36</v>
+      </c>
+      <c r="C192" s="1">
+        <v>3</v>
+      </c>
+      <c r="D192" s="1">
+        <v>1</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B193" s="1">
+        <v>37</v>
+      </c>
+      <c r="C193" s="1">
+        <v>3</v>
+      </c>
+      <c r="D193" s="1">
+        <v>1</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B194" s="1">
+        <v>38</v>
+      </c>
+      <c r="C194" s="1">
+        <v>3</v>
+      </c>
+      <c r="D194" s="1">
+        <v>1</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B195" s="1">
+        <v>39</v>
+      </c>
+      <c r="C195" s="1">
+        <v>3</v>
+      </c>
+      <c r="D195" s="1">
+        <v>0</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B196" s="3">
+        <v>60</v>
+      </c>
+      <c r="C196" s="1">
+        <v>3</v>
+      </c>
+      <c r="D196" s="1">
+        <v>1</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B197" s="3">
+        <v>61</v>
+      </c>
+      <c r="C197" s="1">
+        <v>3</v>
+      </c>
+      <c r="D197" s="1">
+        <v>1</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B198" s="3">
+        <v>62</v>
+      </c>
+      <c r="C198" s="1">
+        <v>3</v>
+      </c>
+      <c r="D198" s="1">
+        <v>0</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B199" s="3">
+        <v>65</v>
+      </c>
+      <c r="C199" s="1">
+        <v>3</v>
+      </c>
+      <c r="D199" s="1">
+        <v>1</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B200" s="3">
+        <v>20</v>
+      </c>
+      <c r="C200" s="1">
+        <v>3</v>
+      </c>
+      <c r="D200" s="1">
+        <v>1</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B201" s="3">
+        <v>70</v>
+      </c>
+      <c r="C201" s="1">
+        <v>3</v>
+      </c>
+      <c r="D201" s="1">
+        <v>0</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B202" s="3">
+        <v>80</v>
+      </c>
+      <c r="C202" s="1">
+        <v>3</v>
+      </c>
+      <c r="D202" s="3">
+        <v>2</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B203" s="3">
+        <v>60</v>
+      </c>
+      <c r="C203" s="1">
+        <v>3</v>
+      </c>
+      <c r="D203" s="3">
+        <v>2</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B204" s="3">
+        <v>61</v>
+      </c>
+      <c r="C204" s="1">
+        <v>3</v>
+      </c>
+      <c r="D204" s="3">
+        <v>2</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B205" s="3">
+        <v>62</v>
+      </c>
+      <c r="C205" s="1">
+        <v>3</v>
+      </c>
+      <c r="D205" s="3">
+        <v>2</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B206" s="3">
+        <v>65</v>
+      </c>
+      <c r="C206" s="3">
+        <v>4</v>
+      </c>
+      <c r="D206" s="3">
+        <v>2</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B207" s="3">
+        <v>20</v>
+      </c>
+      <c r="C207" s="3">
+        <v>4</v>
+      </c>
+      <c r="D207" s="3">
+        <v>2</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="208" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B208" s="3">
+        <v>70</v>
+      </c>
+      <c r="C208" s="3">
+        <v>4</v>
+      </c>
+      <c r="D208" s="3">
+        <v>2</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="209" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B209" s="3">
+        <v>80</v>
+      </c>
+      <c r="C209" s="3">
+        <v>4</v>
+      </c>
+      <c r="D209" s="3">
+        <v>2</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="210" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B210" s="3">
+        <v>60</v>
+      </c>
+      <c r="C210" s="1">
+        <v>3</v>
+      </c>
+      <c r="D210" s="1">
+        <v>1</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="211" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B211" s="3">
+        <v>61</v>
+      </c>
+      <c r="C211" s="1">
+        <v>3</v>
+      </c>
+      <c r="D211" s="1">
+        <v>1</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="212" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B212" s="3">
+        <v>62</v>
+      </c>
+      <c r="C212" s="1">
+        <v>3</v>
+      </c>
+      <c r="D212" s="1">
+        <v>0</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="213" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B213" s="3">
+        <v>65</v>
+      </c>
+      <c r="C213" s="1">
+        <v>3</v>
+      </c>
+      <c r="D213" s="1">
+        <v>1</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="214" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B214" s="3">
+        <v>20</v>
+      </c>
+      <c r="C214" s="1">
+        <v>3</v>
+      </c>
+      <c r="D214" s="1">
+        <v>1</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="215" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B215" s="3">
+        <v>70</v>
+      </c>
+      <c r="C215" s="1">
+        <v>3</v>
+      </c>
+      <c r="D215" s="1">
+        <v>0</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="216" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B216" s="3">
+        <v>80</v>
+      </c>
+      <c r="C216" s="1">
+        <v>3</v>
+      </c>
+      <c r="D216" s="3">
+        <v>2</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="217" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B217" s="3">
+        <v>60</v>
+      </c>
+      <c r="C217" s="1">
+        <v>3</v>
+      </c>
+      <c r="D217" s="3">
+        <v>2</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="218" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B218" s="3">
+        <v>61</v>
+      </c>
+      <c r="C218" s="1">
+        <v>3</v>
+      </c>
+      <c r="D218" s="3">
+        <v>2</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="219" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B219" s="3">
+        <v>62</v>
+      </c>
+      <c r="C219" s="1">
+        <v>3</v>
+      </c>
+      <c r="D219" s="3">
+        <v>2</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="220" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B220" s="3">
+        <v>65</v>
+      </c>
+      <c r="C220" s="3">
+        <v>4</v>
+      </c>
+      <c r="D220" s="3">
+        <v>2</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="221" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B221" s="3">
+        <v>20</v>
+      </c>
+      <c r="C221" s="3">
+        <v>4</v>
+      </c>
+      <c r="D221" s="3">
+        <v>2</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="222" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B222" s="3">
+        <v>70</v>
+      </c>
+      <c r="C222" s="3">
+        <v>4</v>
+      </c>
+      <c r="D222" s="3">
+        <v>2</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="223" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B223" s="3">
+        <v>80</v>
+      </c>
+      <c r="C223" s="3">
+        <v>4</v>
+      </c>
+      <c r="D223" s="3">
+        <v>2</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="224" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B224" s="3">
+        <v>60</v>
+      </c>
+      <c r="C224" s="1">
+        <v>3</v>
+      </c>
+      <c r="D224" s="1">
+        <v>1</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="225" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B225" s="3">
+        <v>61</v>
+      </c>
+      <c r="C225" s="1">
+        <v>3</v>
+      </c>
+      <c r="D225" s="1">
+        <v>1</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="226" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B226" s="3">
+        <v>62</v>
+      </c>
+      <c r="C226" s="1">
+        <v>3</v>
+      </c>
+      <c r="D226" s="1">
+        <v>0</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G226" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="227" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B227" s="3">
+        <v>65</v>
+      </c>
+      <c r="C227" s="1">
+        <v>3</v>
+      </c>
+      <c r="D227" s="1">
+        <v>1</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G227" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="228" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B228" s="3">
+        <v>20</v>
+      </c>
+      <c r="C228" s="1">
+        <v>3</v>
+      </c>
+      <c r="D228" s="1">
+        <v>1</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G228" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="229" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B229" s="3">
+        <v>70</v>
+      </c>
+      <c r="C229" s="1">
+        <v>3</v>
+      </c>
+      <c r="D229" s="1">
+        <v>0</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G229" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="230" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B230" s="3">
+        <v>80</v>
+      </c>
+      <c r="C230" s="1">
+        <v>3</v>
+      </c>
+      <c r="D230" s="3">
+        <v>2</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="231" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B231" s="3">
+        <v>60</v>
+      </c>
+      <c r="C231" s="1">
+        <v>3</v>
+      </c>
+      <c r="D231" s="3">
+        <v>2</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G231" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="232" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B232" s="3">
+        <v>61</v>
+      </c>
+      <c r="C232" s="1">
+        <v>3</v>
+      </c>
+      <c r="D232" s="3">
+        <v>2</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G232" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="233" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B233" s="3">
+        <v>62</v>
+      </c>
+      <c r="C233" s="1">
+        <v>3</v>
+      </c>
+      <c r="D233" s="3">
+        <v>2</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="234" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B234" s="3">
+        <v>65</v>
+      </c>
+      <c r="C234" s="3">
+        <v>4</v>
+      </c>
+      <c r="D234" s="3">
+        <v>2</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G234" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="235" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B235" s="3">
+        <v>20</v>
+      </c>
+      <c r="C235" s="3">
+        <v>4</v>
+      </c>
+      <c r="D235" s="3">
+        <v>2</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G235" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="236" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B236" s="3">
+        <v>70</v>
+      </c>
+      <c r="C236" s="3">
+        <v>4</v>
+      </c>
+      <c r="D236" s="3">
+        <v>2</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G236" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="237" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B237" s="3">
+        <v>80</v>
+      </c>
+      <c r="C237" s="3">
+        <v>4</v>
+      </c>
+      <c r="D237" s="3">
+        <v>2</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G237" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="238" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B238" s="3">
+        <v>60</v>
+      </c>
+      <c r="C238" s="1">
+        <v>3</v>
+      </c>
+      <c r="D238" s="1">
+        <v>1</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G238" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="239" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B239" s="3">
+        <v>61</v>
+      </c>
+      <c r="C239" s="1">
+        <v>3</v>
+      </c>
+      <c r="D239" s="1">
+        <v>1</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G239" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="240" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B240" s="3">
+        <v>62</v>
+      </c>
+      <c r="C240" s="1">
+        <v>3</v>
+      </c>
+      <c r="D240" s="1">
+        <v>0</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G240" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="241" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B241" s="3">
+        <v>65</v>
+      </c>
+      <c r="C241" s="1">
+        <v>3</v>
+      </c>
+      <c r="D241" s="1">
+        <v>1</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G241" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="242" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B242" s="3">
+        <v>20</v>
+      </c>
+      <c r="C242" s="1">
+        <v>3</v>
+      </c>
+      <c r="D242" s="1">
+        <v>1</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G242" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="243" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B243" s="3">
+        <v>70</v>
+      </c>
+      <c r="C243" s="1">
+        <v>3</v>
+      </c>
+      <c r="D243" s="1">
+        <v>0</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G243" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="244" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B244" s="3">
+        <v>80</v>
+      </c>
+      <c r="C244" s="1">
+        <v>3</v>
+      </c>
+      <c r="D244" s="3">
+        <v>2</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G244" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="245" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B245" s="3">
+        <v>60</v>
+      </c>
+      <c r="C245" s="1">
+        <v>3</v>
+      </c>
+      <c r="D245" s="3">
+        <v>2</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G245" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="246" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B246" s="3">
+        <v>61</v>
+      </c>
+      <c r="C246" s="1">
+        <v>3</v>
+      </c>
+      <c r="D246" s="3">
+        <v>2</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G246" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="247" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B247" s="3">
+        <v>62</v>
+      </c>
+      <c r="C247" s="1">
+        <v>3</v>
+      </c>
+      <c r="D247" s="3">
+        <v>2</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G247" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="248" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B248" s="3">
+        <v>65</v>
+      </c>
+      <c r="C248" s="3">
+        <v>4</v>
+      </c>
+      <c r="D248" s="3">
+        <v>2</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G248" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="249" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B249" s="3">
+        <v>20</v>
+      </c>
+      <c r="C249" s="3">
+        <v>4</v>
+      </c>
+      <c r="D249" s="3">
+        <v>2</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G249" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="250" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B250" s="3">
+        <v>70</v>
+      </c>
+      <c r="C250" s="3">
+        <v>4</v>
+      </c>
+      <c r="D250" s="3">
+        <v>2</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G250" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="251" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B251" s="3">
+        <v>80</v>
+      </c>
+      <c r="C251" s="3">
+        <v>4</v>
+      </c>
+      <c r="D251" s="3">
+        <v>2</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G251" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="252" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B252" s="3">
+        <v>23</v>
+      </c>
+      <c r="C252" s="3">
+        <v>4</v>
+      </c>
+      <c r="D252" s="3">
+        <v>0</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="253" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B253" s="3">
+        <v>22</v>
+      </c>
+      <c r="C253" s="3">
+        <v>3</v>
+      </c>
+      <c r="D253" s="3">
+        <v>0</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G253" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="254" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B254" s="3">
+        <v>25</v>
+      </c>
+      <c r="C254" s="3">
+        <v>7</v>
+      </c>
+      <c r="D254" s="3">
+        <v>0</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G254" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="255" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B255" s="3">
+        <v>20</v>
+      </c>
+      <c r="C255" s="3">
+        <v>4</v>
+      </c>
+      <c r="D255" s="3">
+        <v>0</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G255" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="256" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B256" s="3">
+        <v>21</v>
+      </c>
+      <c r="C256" s="3">
+        <v>3</v>
+      </c>
+      <c r="D256" s="3">
+        <v>0</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G256" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="257" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B257" s="3">
+        <v>19</v>
+      </c>
+      <c r="C257" s="3">
+        <v>4</v>
+      </c>
+      <c r="D257" s="3">
+        <v>0</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G257" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="258" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B258" s="3">
+        <v>23</v>
+      </c>
+      <c r="C258" s="3">
+        <v>4</v>
+      </c>
+      <c r="D258" s="3">
+        <v>0</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G258" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="259" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B259" s="3">
+        <v>22</v>
+      </c>
+      <c r="C259" s="3">
+        <v>3</v>
+      </c>
+      <c r="D259" s="3">
+        <v>0</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F259" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G259" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="260" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B260" s="3">
+        <v>25</v>
+      </c>
+      <c r="C260" s="3">
+        <v>7</v>
+      </c>
+      <c r="D260" s="3">
+        <v>0</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G260" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="261" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B261" s="3">
+        <v>20</v>
+      </c>
+      <c r="C261" s="3">
+        <v>4</v>
+      </c>
+      <c r="D261" s="3">
+        <v>0</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G261" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="262" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B262" s="3">
+        <v>21</v>
+      </c>
+      <c r="C262" s="3">
+        <v>3</v>
+      </c>
+      <c r="D262" s="3">
+        <v>0</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G262" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="263" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B263" s="3">
+        <v>19</v>
+      </c>
+      <c r="C263" s="3">
+        <v>4</v>
+      </c>
+      <c r="D263" s="3">
+        <v>0</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F263" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G263" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="264" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B264" s="3">
+        <v>23</v>
+      </c>
+      <c r="C264" s="3">
+        <v>4</v>
+      </c>
+      <c r="D264" s="3">
+        <v>0</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G264" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="265" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B265" s="3">
+        <v>22</v>
+      </c>
+      <c r="C265" s="3">
+        <v>3</v>
+      </c>
+      <c r="D265" s="3">
+        <v>0</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G265" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="266" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B266" s="3">
+        <v>25</v>
+      </c>
+      <c r="C266" s="3">
+        <v>7</v>
+      </c>
+      <c r="D266" s="3">
+        <v>0</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G266" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="267" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B267" s="3">
+        <v>20</v>
+      </c>
+      <c r="C267" s="3">
+        <v>4</v>
+      </c>
+      <c r="D267" s="3">
+        <v>0</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G267" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="268" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B268" s="3">
+        <v>21</v>
+      </c>
+      <c r="C268" s="3">
+        <v>3</v>
+      </c>
+      <c r="D268" s="3">
+        <v>0</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F268" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G268" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="269" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B269" s="3">
+        <v>19</v>
+      </c>
+      <c r="C269" s="3">
+        <v>4</v>
+      </c>
+      <c r="D269" s="3">
+        <v>0</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G269" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="270" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B270" s="1">
+        <v>20</v>
+      </c>
+      <c r="C270" s="1">
+        <v>0</v>
+      </c>
+      <c r="D270" s="1">
+        <v>0</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="271" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B271" s="1">
+        <v>21</v>
+      </c>
+      <c r="C271" s="1">
+        <v>0</v>
+      </c>
+      <c r="D271" s="1">
+        <v>0</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B272" s="1">
+        <v>22</v>
+      </c>
+      <c r="C272" s="1">
+        <v>0</v>
+      </c>
+      <c r="D272" s="1">
+        <v>0</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="273" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B273" s="1">
+        <v>23</v>
+      </c>
+      <c r="C273" s="1">
+        <v>0</v>
+      </c>
+      <c r="D273" s="1">
+        <v>1</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="274" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B274" s="1">
+        <v>24</v>
+      </c>
+      <c r="C274" s="1">
+        <v>0</v>
+      </c>
+      <c r="D274" s="1">
+        <v>0</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G274" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="275" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B275" s="1">
+        <v>25</v>
+      </c>
+      <c r="C275" s="1">
+        <v>0</v>
+      </c>
+      <c r="D275" s="1">
+        <v>0</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="276" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B276" s="1">
+        <v>26</v>
+      </c>
+      <c r="C276" s="1">
+        <v>0</v>
+      </c>
+      <c r="D276" s="1">
+        <v>0</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G276" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B277" s="1">
+        <v>27</v>
+      </c>
+      <c r="C277" s="1">
+        <v>0</v>
+      </c>
+      <c r="D277" s="1">
+        <v>2</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G277" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B278" s="1">
+        <v>28</v>
+      </c>
+      <c r="C278" s="1">
+        <v>0</v>
+      </c>
+      <c r="D278" s="1">
+        <v>0</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G278" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="279" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B279" s="1">
+        <v>29</v>
+      </c>
+      <c r="C279" s="1">
+        <v>0</v>
+      </c>
+      <c r="D279" s="1">
+        <v>0</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B280" s="1">
+        <v>20</v>
+      </c>
+      <c r="C280" s="1">
+        <v>1</v>
+      </c>
+      <c r="D280" s="1">
+        <v>0</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B281" s="1">
+        <v>21</v>
+      </c>
+      <c r="C281" s="1">
+        <v>1</v>
+      </c>
+      <c r="D281" s="1">
+        <v>0</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B282" s="1">
+        <v>22</v>
+      </c>
+      <c r="C282" s="1">
+        <v>1</v>
+      </c>
+      <c r="D282" s="1">
+        <v>0</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="283" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B283" s="1">
+        <v>23</v>
+      </c>
+      <c r="C283" s="1">
+        <v>1</v>
+      </c>
+      <c r="D283" s="1">
+        <v>0</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="284" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B284" s="1">
+        <v>24</v>
+      </c>
+      <c r="C284" s="1">
+        <v>1</v>
+      </c>
+      <c r="D284" s="1">
+        <v>0</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="285" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B285" s="1">
+        <v>25</v>
+      </c>
+      <c r="C285" s="1">
+        <v>1</v>
+      </c>
+      <c r="D285" s="1">
+        <v>0</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="286" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B286" s="1">
+        <v>26</v>
+      </c>
+      <c r="C286" s="1">
+        <v>1</v>
+      </c>
+      <c r="D286" s="1">
+        <v>0</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G286" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="287" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B287" s="1">
+        <v>27</v>
+      </c>
+      <c r="C287" s="1">
+        <v>1</v>
+      </c>
+      <c r="D287" s="1">
+        <v>1</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="288" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B288" s="1">
+        <v>28</v>
+      </c>
+      <c r="C288" s="1">
+        <v>1</v>
+      </c>
+      <c r="D288" s="1">
+        <v>0</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B289" s="1">
+        <v>29</v>
+      </c>
+      <c r="C289" s="1">
+        <v>1</v>
+      </c>
+      <c r="D289" s="1">
+        <v>0</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="290" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B290" s="1">
+        <v>20</v>
+      </c>
+      <c r="C290" s="1">
+        <v>2</v>
+      </c>
+      <c r="D290" s="1">
+        <v>0</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="291" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B291" s="1">
+        <v>21</v>
+      </c>
+      <c r="C291" s="1">
+        <v>2</v>
+      </c>
+      <c r="D291" s="1">
+        <v>0</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="292" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B292" s="1">
+        <v>22</v>
+      </c>
+      <c r="C292" s="1">
+        <v>2</v>
+      </c>
+      <c r="D292" s="1">
+        <v>0</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="293" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B293" s="1">
+        <v>23</v>
+      </c>
+      <c r="C293" s="1">
+        <v>2</v>
+      </c>
+      <c r="D293" s="1">
+        <v>0</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="294" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B294" s="1">
+        <v>24</v>
+      </c>
+      <c r="C294" s="1">
+        <v>2</v>
+      </c>
+      <c r="D294" s="1">
+        <v>0</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="295" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B295" s="1">
+        <v>25</v>
+      </c>
+      <c r="C295" s="1">
+        <v>2</v>
+      </c>
+      <c r="D295" s="1">
+        <v>0</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G295" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="296" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B296" s="1">
+        <v>26</v>
+      </c>
+      <c r="C296" s="1">
+        <v>2</v>
+      </c>
+      <c r="D296" s="1">
+        <v>0</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G296" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="297" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B297" s="1">
+        <v>27</v>
+      </c>
+      <c r="C297" s="1">
+        <v>2</v>
+      </c>
+      <c r="D297" s="1">
+        <v>0</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="298" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B298" s="1">
+        <v>28</v>
+      </c>
+      <c r="C298" s="1">
+        <v>2</v>
+      </c>
+      <c r="D298" s="1">
+        <v>0</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G298" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="299" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B299" s="1">
+        <v>29</v>
+      </c>
+      <c r="C299" s="1">
+        <v>2</v>
+      </c>
+      <c r="D299" s="1">
+        <v>0</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G299" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B300" s="1">
+        <v>25</v>
+      </c>
+      <c r="C300" s="1">
+        <v>4</v>
+      </c>
+      <c r="D300" s="1">
+        <v>0</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="301" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B301" s="1">
+        <v>26</v>
+      </c>
+      <c r="C301" s="1">
+        <v>4</v>
+      </c>
+      <c r="D301" s="1">
+        <v>0</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G301" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="302" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B302" s="1">
+        <v>27</v>
+      </c>
+      <c r="C302" s="1">
+        <v>4</v>
+      </c>
+      <c r="D302" s="1">
+        <v>0</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G302" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="303" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B303" s="1">
+        <v>28</v>
+      </c>
+      <c r="C303" s="1">
+        <v>4</v>
+      </c>
+      <c r="D303" s="1">
+        <v>1</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G303" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="304" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B304" s="1">
+        <v>29</v>
+      </c>
+      <c r="C304" s="1">
+        <v>4</v>
+      </c>
+      <c r="D304" s="1">
+        <v>2</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G304" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="305" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B305" s="1">
+        <v>30</v>
+      </c>
+      <c r="C305" s="1">
+        <v>4</v>
+      </c>
+      <c r="D305" s="1">
+        <v>1</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G305" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="306" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B306" s="1">
+        <v>31</v>
+      </c>
+      <c r="C306" s="1">
+        <v>5</v>
+      </c>
+      <c r="D306" s="1">
+        <v>2</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G306" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="307" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B307" s="1">
+        <v>32</v>
+      </c>
+      <c r="C307" s="1">
+        <v>5</v>
+      </c>
+      <c r="D307" s="1">
+        <v>1</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G307" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="308" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B308" s="1">
+        <v>33</v>
+      </c>
+      <c r="C308" s="1">
+        <v>5</v>
+      </c>
+      <c r="D308" s="1">
+        <v>2</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G308" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="309" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B309" s="1">
+        <v>34</v>
+      </c>
+      <c r="C309" s="1">
+        <v>5</v>
+      </c>
+      <c r="D309" s="1">
+        <v>1</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G309" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="310" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B310" s="1">
+        <v>35</v>
+      </c>
+      <c r="C310" s="1">
+        <v>5</v>
+      </c>
+      <c r="D310" s="1">
+        <v>2</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G310" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="311" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B311" s="1">
+        <v>36</v>
+      </c>
+      <c r="C311" s="1">
+        <v>5</v>
+      </c>
+      <c r="D311" s="1">
+        <v>1</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G311" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="312" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B312" s="1">
+        <v>37</v>
+      </c>
+      <c r="C312" s="1">
+        <v>2</v>
+      </c>
+      <c r="D312" s="1">
+        <v>2</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G312" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="313" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B313" s="1">
+        <v>38</v>
+      </c>
+      <c r="C313" s="1">
+        <v>2</v>
+      </c>
+      <c r="D313" s="1">
+        <v>3</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G313" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="314" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B314" s="1">
+        <v>39</v>
+      </c>
+      <c r="C314" s="1">
+        <v>2</v>
+      </c>
+      <c r="D314" s="1">
+        <v>3</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G314" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="315" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B315" s="1">
+        <v>25</v>
+      </c>
+      <c r="C315" s="1">
+        <v>2</v>
+      </c>
+      <c r="D315" s="1">
+        <v>3</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G315" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="316" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B316" s="1">
+        <v>26</v>
+      </c>
+      <c r="C316" s="1">
+        <v>2</v>
+      </c>
+      <c r="D316" s="1">
+        <v>3</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G316" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="317" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B317" s="1">
+        <v>27</v>
+      </c>
+      <c r="C317" s="1">
+        <v>2</v>
+      </c>
+      <c r="D317" s="1">
+        <v>3</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G317" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="318" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B318" s="1">
+        <v>28</v>
+      </c>
+      <c r="C318" s="1">
+        <v>2</v>
+      </c>
+      <c r="D318" s="1">
+        <v>3</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G318" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="319" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B319" s="1">
+        <v>29</v>
+      </c>
+      <c r="C319" s="1">
+        <v>2</v>
+      </c>
+      <c r="D319" s="1">
+        <v>3</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G319" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="320" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B320" s="1">
+        <v>30</v>
+      </c>
+      <c r="C320" s="1">
+        <v>3</v>
+      </c>
+      <c r="D320" s="1">
+        <v>3</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G320" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="321" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B321" s="1">
+        <v>31</v>
+      </c>
+      <c r="C321" s="1">
+        <v>3</v>
+      </c>
+      <c r="D321" s="1">
+        <v>2</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G321" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="322" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B322" s="1">
+        <v>32</v>
+      </c>
+      <c r="C322" s="1">
+        <v>3</v>
+      </c>
+      <c r="D322" s="1">
+        <v>2</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G322" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="323" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B323" s="1">
+        <v>33</v>
+      </c>
+      <c r="C323" s="1">
+        <v>3</v>
+      </c>
+      <c r="D323" s="1">
+        <v>4</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G323" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="324" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B324" s="1">
+        <v>34</v>
+      </c>
+      <c r="C324" s="1">
+        <v>3</v>
+      </c>
+      <c r="D324" s="1">
+        <v>5</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G324" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="325" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B325" s="1">
+        <v>35</v>
+      </c>
+      <c r="C325" s="1">
+        <v>3</v>
+      </c>
+      <c r="D325" s="1">
+        <v>1</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G325" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="326" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B326" s="1">
+        <v>36</v>
+      </c>
+      <c r="C326" s="1">
+        <v>3</v>
+      </c>
+      <c r="D326" s="1">
+        <v>1</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G326" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="327" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B327" s="1">
+        <v>37</v>
+      </c>
+      <c r="C327" s="1">
+        <v>3</v>
+      </c>
+      <c r="D327" s="1">
+        <v>1</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G327" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="328" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B328" s="1">
+        <v>38</v>
+      </c>
+      <c r="C328" s="1">
+        <v>3</v>
+      </c>
+      <c r="D328" s="1">
+        <v>1</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G328" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="329" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B329" s="1">
+        <v>39</v>
+      </c>
+      <c r="C329" s="1">
+        <v>3</v>
+      </c>
+      <c r="D329" s="1">
+        <v>0</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F329" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G329" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="330" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B330" s="3">
+        <v>60</v>
+      </c>
+      <c r="C330" s="1">
+        <v>3</v>
+      </c>
+      <c r="D330" s="1">
+        <v>1</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F330" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G330" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="331" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B331" s="3">
+        <v>61</v>
+      </c>
+      <c r="C331" s="1">
+        <v>3</v>
+      </c>
+      <c r="D331" s="1">
+        <v>1</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F331" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G331" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="332" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B332" s="3">
+        <v>62</v>
+      </c>
+      <c r="C332" s="1">
+        <v>3</v>
+      </c>
+      <c r="D332" s="1">
+        <v>0</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F332" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G332" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="333" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B333" s="3">
+        <v>65</v>
+      </c>
+      <c r="C333" s="1">
+        <v>3</v>
+      </c>
+      <c r="D333" s="1">
+        <v>1</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F333" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G333" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="334" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B334" s="3">
+        <v>20</v>
+      </c>
+      <c r="C334" s="1">
+        <v>3</v>
+      </c>
+      <c r="D334" s="1">
+        <v>1</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F334" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G334" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="335" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B335" s="3">
+        <v>70</v>
+      </c>
+      <c r="C335" s="1">
+        <v>3</v>
+      </c>
+      <c r="D335" s="1">
+        <v>0</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F335" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G335" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="336" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B336" s="3">
+        <v>80</v>
+      </c>
+      <c r="C336" s="1">
+        <v>3</v>
+      </c>
+      <c r="D336" s="3">
+        <v>2</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G336" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="337" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B337" s="3">
+        <v>60</v>
+      </c>
+      <c r="C337" s="1">
+        <v>3</v>
+      </c>
+      <c r="D337" s="3">
+        <v>2</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G337" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="338" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B338" s="3">
+        <v>61</v>
+      </c>
+      <c r="C338" s="1">
+        <v>3</v>
+      </c>
+      <c r="D338" s="3">
+        <v>2</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G338" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="339" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B339" s="3">
+        <v>62</v>
+      </c>
+      <c r="C339" s="1">
+        <v>3</v>
+      </c>
+      <c r="D339" s="3">
+        <v>2</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G339" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="340" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B340" s="3">
+        <v>65</v>
+      </c>
+      <c r="C340" s="3">
+        <v>4</v>
+      </c>
+      <c r="D340" s="3">
+        <v>2</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G340" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="341" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B341" s="3">
+        <v>20</v>
+      </c>
+      <c r="C341" s="3">
+        <v>4</v>
+      </c>
+      <c r="D341" s="3">
+        <v>2</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G341" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="342" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B342" s="3">
+        <v>70</v>
+      </c>
+      <c r="C342" s="3">
+        <v>4</v>
+      </c>
+      <c r="D342" s="3">
+        <v>2</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G342" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="343" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B343" s="3">
+        <v>80</v>
+      </c>
+      <c r="C343" s="3">
+        <v>4</v>
+      </c>
+      <c r="D343" s="3">
+        <v>2</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G343" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="344" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B344" s="3">
+        <v>60</v>
+      </c>
+      <c r="C344" s="1">
+        <v>3</v>
+      </c>
+      <c r="D344" s="1">
+        <v>1</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G344" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="345" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B345" s="3">
+        <v>61</v>
+      </c>
+      <c r="C345" s="1">
+        <v>3</v>
+      </c>
+      <c r="D345" s="1">
+        <v>1</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G345" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="346" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B346" s="3">
+        <v>62</v>
+      </c>
+      <c r="C346" s="1">
+        <v>3</v>
+      </c>
+      <c r="D346" s="1">
+        <v>0</v>
+      </c>
+      <c r="E346" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G346" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="347" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B347" s="3">
+        <v>65</v>
+      </c>
+      <c r="C347" s="1">
+        <v>3</v>
+      </c>
+      <c r="D347" s="1">
+        <v>1</v>
+      </c>
+      <c r="E347" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G347" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="348" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B348" s="3">
+        <v>20</v>
+      </c>
+      <c r="C348" s="1">
+        <v>3</v>
+      </c>
+      <c r="D348" s="1">
+        <v>1</v>
+      </c>
+      <c r="E348" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G348" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="349" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B349" s="3">
+        <v>70</v>
+      </c>
+      <c r="C349" s="1">
+        <v>3</v>
+      </c>
+      <c r="D349" s="1">
+        <v>0</v>
+      </c>
+      <c r="E349" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G349" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="350" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B350" s="3">
+        <v>80</v>
+      </c>
+      <c r="C350" s="1">
+        <v>3</v>
+      </c>
+      <c r="D350" s="3">
+        <v>2</v>
+      </c>
+      <c r="E350" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G350" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="351" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B351" s="3">
+        <v>60</v>
+      </c>
+      <c r="C351" s="1">
+        <v>3</v>
+      </c>
+      <c r="D351" s="3">
+        <v>2</v>
+      </c>
+      <c r="E351" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G351" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="352" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B352" s="3">
+        <v>61</v>
+      </c>
+      <c r="C352" s="1">
+        <v>3</v>
+      </c>
+      <c r="D352" s="3">
+        <v>2</v>
+      </c>
+      <c r="E352" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G352" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="353" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B353" s="3">
+        <v>62</v>
+      </c>
+      <c r="C353" s="1">
+        <v>3</v>
+      </c>
+      <c r="D353" s="3">
+        <v>2</v>
+      </c>
+      <c r="E353" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G353" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="354" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B354" s="3">
+        <v>65</v>
+      </c>
+      <c r="C354" s="3">
+        <v>4</v>
+      </c>
+      <c r="D354" s="3">
+        <v>2</v>
+      </c>
+      <c r="E354" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G354" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="355" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B355" s="3">
+        <v>20</v>
+      </c>
+      <c r="C355" s="3">
+        <v>4</v>
+      </c>
+      <c r="D355" s="3">
+        <v>2</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G355" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="356" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B356" s="3">
+        <v>70</v>
+      </c>
+      <c r="C356" s="3">
+        <v>4</v>
+      </c>
+      <c r="D356" s="3">
+        <v>2</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F356" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G356" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="357" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B357" s="3">
+        <v>80</v>
+      </c>
+      <c r="C357" s="3">
+        <v>4</v>
+      </c>
+      <c r="D357" s="3">
+        <v>2</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G357" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="358" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B358" s="3">
+        <v>60</v>
+      </c>
+      <c r="C358" s="1">
+        <v>3</v>
+      </c>
+      <c r="D358" s="1">
+        <v>1</v>
+      </c>
+      <c r="E358" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G358" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="359" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B359" s="3">
+        <v>61</v>
+      </c>
+      <c r="C359" s="1">
+        <v>3</v>
+      </c>
+      <c r="D359" s="1">
+        <v>1</v>
+      </c>
+      <c r="E359" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G359" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="360" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B360" s="3">
+        <v>62</v>
+      </c>
+      <c r="C360" s="1">
+        <v>3</v>
+      </c>
+      <c r="D360" s="1">
+        <v>0</v>
+      </c>
+      <c r="E360" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G360" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="361" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B361" s="3">
+        <v>65</v>
+      </c>
+      <c r="C361" s="1">
+        <v>3</v>
+      </c>
+      <c r="D361" s="1">
+        <v>1</v>
+      </c>
+      <c r="E361" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G361" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="362" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B362" s="3">
+        <v>20</v>
+      </c>
+      <c r="C362" s="1">
+        <v>3</v>
+      </c>
+      <c r="D362" s="1">
+        <v>1</v>
+      </c>
+      <c r="E362" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F362" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G362" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="363" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B363" s="3">
+        <v>70</v>
+      </c>
+      <c r="C363" s="1">
+        <v>3</v>
+      </c>
+      <c r="D363" s="1">
+        <v>0</v>
+      </c>
+      <c r="E363" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G363" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="364" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B364" s="3">
+        <v>80</v>
+      </c>
+      <c r="C364" s="1">
+        <v>3</v>
+      </c>
+      <c r="D364" s="3">
+        <v>2</v>
+      </c>
+      <c r="E364" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F364" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G364" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="365" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B365" s="3">
+        <v>60</v>
+      </c>
+      <c r="C365" s="1">
+        <v>3</v>
+      </c>
+      <c r="D365" s="3">
+        <v>2</v>
+      </c>
+      <c r="E365" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F365" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G365" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="366" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B366" s="3">
+        <v>61</v>
+      </c>
+      <c r="C366" s="1">
+        <v>3</v>
+      </c>
+      <c r="D366" s="3">
+        <v>2</v>
+      </c>
+      <c r="E366" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F366" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G366" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="367" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B367" s="3">
+        <v>62</v>
+      </c>
+      <c r="C367" s="1">
+        <v>3</v>
+      </c>
+      <c r="D367" s="3">
+        <v>2</v>
+      </c>
+      <c r="E367" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F367" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G367" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="368" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B368" s="3">
+        <v>65</v>
+      </c>
+      <c r="C368" s="3">
+        <v>4</v>
+      </c>
+      <c r="D368" s="3">
+        <v>2</v>
+      </c>
+      <c r="E368" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F368" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G368" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="369" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B369" s="3">
+        <v>20</v>
+      </c>
+      <c r="C369" s="3">
+        <v>4</v>
+      </c>
+      <c r="D369" s="3">
+        <v>2</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F369" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G369" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="370" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B370" s="3">
+        <v>70</v>
+      </c>
+      <c r="C370" s="3">
+        <v>4</v>
+      </c>
+      <c r="D370" s="3">
+        <v>2</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F370" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G370" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="371" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B371" s="3">
+        <v>80</v>
+      </c>
+      <c r="C371" s="3">
+        <v>4</v>
+      </c>
+      <c r="D371" s="3">
+        <v>2</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F371" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G371" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="372" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B372" s="3">
+        <v>60</v>
+      </c>
+      <c r="C372" s="1">
+        <v>3</v>
+      </c>
+      <c r="D372" s="1">
+        <v>1</v>
+      </c>
+      <c r="E372" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F372" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G372" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="373" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B373" s="3">
+        <v>61</v>
+      </c>
+      <c r="C373" s="1">
+        <v>3</v>
+      </c>
+      <c r="D373" s="1">
+        <v>1</v>
+      </c>
+      <c r="E373" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F373" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G373" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="374" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B374" s="3">
+        <v>62</v>
+      </c>
+      <c r="C374" s="1">
+        <v>3</v>
+      </c>
+      <c r="D374" s="1">
+        <v>0</v>
+      </c>
+      <c r="E374" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F374" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G374" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="375" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B375" s="3">
+        <v>65</v>
+      </c>
+      <c r="C375" s="1">
+        <v>3</v>
+      </c>
+      <c r="D375" s="1">
+        <v>1</v>
+      </c>
+      <c r="E375" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F375" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G375" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="376" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B376" s="3">
+        <v>20</v>
+      </c>
+      <c r="C376" s="1">
+        <v>3</v>
+      </c>
+      <c r="D376" s="1">
+        <v>1</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F376" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G376" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="377" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B377" s="3">
+        <v>70</v>
+      </c>
+      <c r="C377" s="1">
+        <v>3</v>
+      </c>
+      <c r="D377" s="1">
+        <v>0</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F377" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G377" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="378" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B378" s="3">
+        <v>80</v>
+      </c>
+      <c r="C378" s="1">
+        <v>3</v>
+      </c>
+      <c r="D378" s="3">
+        <v>2</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F378" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G378" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="379" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B379" s="3">
+        <v>60</v>
+      </c>
+      <c r="C379" s="1">
+        <v>3</v>
+      </c>
+      <c r="D379" s="3">
+        <v>2</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F379" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G379" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="380" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B380" s="3">
+        <v>61</v>
+      </c>
+      <c r="C380" s="1">
+        <v>3</v>
+      </c>
+      <c r="D380" s="3">
+        <v>2</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F380" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G380" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="381" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B381" s="3">
+        <v>62</v>
+      </c>
+      <c r="C381" s="1">
+        <v>3</v>
+      </c>
+      <c r="D381" s="3">
+        <v>2</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F381" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G381" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="382" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B382" s="3">
+        <v>65</v>
+      </c>
+      <c r="C382" s="3">
+        <v>4</v>
+      </c>
+      <c r="D382" s="3">
+        <v>2</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G382" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="383" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B383" s="3">
+        <v>20</v>
+      </c>
+      <c r="C383" s="3">
+        <v>4</v>
+      </c>
+      <c r="D383" s="3">
+        <v>2</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F383" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G383" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="384" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B384" s="3">
+        <v>70</v>
+      </c>
+      <c r="C384" s="3">
+        <v>4</v>
+      </c>
+      <c r="D384" s="3">
+        <v>2</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F384" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G384" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="385" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B385" s="3">
+        <v>80</v>
+      </c>
+      <c r="C385" s="3">
+        <v>4</v>
+      </c>
+      <c r="D385" s="3">
+        <v>2</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F385" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G385" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="386" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B386" s="3">
+        <v>23</v>
+      </c>
+      <c r="C386" s="3">
+        <v>4</v>
+      </c>
+      <c r="D386" s="3">
+        <v>0</v>
+      </c>
+      <c r="E386" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F386" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G386" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="387" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B387" s="3">
+        <v>22</v>
+      </c>
+      <c r="C387" s="3">
+        <v>3</v>
+      </c>
+      <c r="D387" s="3">
+        <v>0</v>
+      </c>
+      <c r="E387" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F387" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G387" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="388" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B388" s="3">
+        <v>25</v>
+      </c>
+      <c r="C388" s="3">
+        <v>7</v>
+      </c>
+      <c r="D388" s="3">
+        <v>0</v>
+      </c>
+      <c r="E388" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F388" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G388" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="389" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B389" s="3">
+        <v>20</v>
+      </c>
+      <c r="C389" s="3">
+        <v>4</v>
+      </c>
+      <c r="D389" s="3">
+        <v>0</v>
+      </c>
+      <c r="E389" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F389" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G389" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="390" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B390" s="3">
+        <v>21</v>
+      </c>
+      <c r="C390" s="3">
+        <v>3</v>
+      </c>
+      <c r="D390" s="3">
+        <v>0</v>
+      </c>
+      <c r="E390" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F390" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G390" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="391" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B391" s="3">
+        <v>19</v>
+      </c>
+      <c r="C391" s="3">
+        <v>4</v>
+      </c>
+      <c r="D391" s="3">
+        <v>0</v>
+      </c>
+      <c r="E391" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F391" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G391" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="392" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B392" s="3">
+        <v>23</v>
+      </c>
+      <c r="C392" s="3">
+        <v>4</v>
+      </c>
+      <c r="D392" s="3">
+        <v>0</v>
+      </c>
+      <c r="E392" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F392" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G392" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="393" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B393" s="3">
+        <v>22</v>
+      </c>
+      <c r="C393" s="3">
+        <v>3</v>
+      </c>
+      <c r="D393" s="3">
+        <v>0</v>
+      </c>
+      <c r="E393" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F393" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G393" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="394" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B394" s="3">
+        <v>25</v>
+      </c>
+      <c r="C394" s="3">
+        <v>7</v>
+      </c>
+      <c r="D394" s="3">
+        <v>0</v>
+      </c>
+      <c r="E394" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F394" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G394" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="395" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B395" s="3">
+        <v>20</v>
+      </c>
+      <c r="C395" s="3">
+        <v>4</v>
+      </c>
+      <c r="D395" s="3">
+        <v>0</v>
+      </c>
+      <c r="E395" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F395" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G395" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="396" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B396" s="3">
+        <v>21</v>
+      </c>
+      <c r="C396" s="3">
+        <v>3</v>
+      </c>
+      <c r="D396" s="3">
+        <v>0</v>
+      </c>
+      <c r="E396" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F396" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G396" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="397" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B397" s="3">
+        <v>19</v>
+      </c>
+      <c r="C397" s="3">
+        <v>4</v>
+      </c>
+      <c r="D397" s="3">
+        <v>0</v>
+      </c>
+      <c r="E397" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F397" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G397" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="398" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B398" s="3">
+        <v>23</v>
+      </c>
+      <c r="C398" s="3">
+        <v>4</v>
+      </c>
+      <c r="D398" s="3">
+        <v>0</v>
+      </c>
+      <c r="E398" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F398" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G398" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="399" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B399" s="3">
+        <v>22</v>
+      </c>
+      <c r="C399" s="3">
+        <v>3</v>
+      </c>
+      <c r="D399" s="3">
+        <v>0</v>
+      </c>
+      <c r="E399" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F399" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G399" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="400" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B400" s="3">
+        <v>25</v>
+      </c>
+      <c r="C400" s="3">
+        <v>7</v>
+      </c>
+      <c r="D400" s="3">
+        <v>0</v>
+      </c>
+      <c r="E400" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F400" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G400" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="401" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B401" s="3">
+        <v>20</v>
+      </c>
+      <c r="C401" s="3">
+        <v>4</v>
+      </c>
+      <c r="D401" s="3">
+        <v>0</v>
+      </c>
+      <c r="E401" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F401" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G401" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="402" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B402" s="3">
+        <v>21</v>
+      </c>
+      <c r="C402" s="3">
+        <v>3</v>
+      </c>
+      <c r="D402" s="3">
+        <v>0</v>
+      </c>
+      <c r="E402" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F402" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G402" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="403" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B403" s="3">
+        <v>19</v>
+      </c>
+      <c r="C403" s="3">
+        <v>4</v>
+      </c>
+      <c r="D403" s="3">
+        <v>0</v>
+      </c>
+      <c r="E403" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F403" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G403" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
